--- a/pubmed_validation_sheets/10809851 DISNET VALIDATION.xlsx
+++ b/pubmed_validation_sheets/10809851 DISNET VALIDATION.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/DISNET/CURRENT/pubmed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/DISNET_VALIDATION/pubmed/1.Validated/OK_DISNET_VALIDATION_PUBMED_(100)_v0.2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8B0EDE26-B049-7547-B0E6-7966338EAAD4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D7073C-7A7C-D940-A9F9-F53F0AF27142}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="39500" yWindow="460" windowWidth="20340" windowHeight="21040" xr2:uid="{6E52D1B4-F9CB-4441-9081-5C2868523BBB}"/>
   </bookViews>
@@ -18,17 +18,22 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">VALIDATION!$A$3:$I$3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="80">
   <si>
     <t>WIKIPEDIA TERMS</t>
   </si>
@@ -191,15 +196,6 @@
     <t>Dermatitis - contact</t>
   </si>
   <si>
-    <t>range</t>
-  </si>
-  <si>
-    <t>Concept model range (foundation metadata concept)</t>
-  </si>
-  <si>
-    <t>[inpr]</t>
-  </si>
-  <si>
     <t>laboratory, finding</t>
   </si>
   <si>
@@ -239,30 +235,12 @@
     <t>Symptom</t>
   </si>
   <si>
-    <t>65</t>
-  </si>
-  <si>
     <t>fever</t>
   </si>
   <si>
     <t>Fever symptoms (finding)</t>
   </si>
   <si>
-    <t>medical, records</t>
-  </si>
-  <si>
-    <t>Medical record</t>
-  </si>
-  <si>
-    <t>dermis</t>
-  </si>
-  <si>
-    <t>Dermis</t>
-  </si>
-  <si>
-    <t>[tisu]</t>
-  </si>
-  <si>
     <t>blisters</t>
   </si>
   <si>
@@ -273,9 +251,6 @@
   </si>
   <si>
     <t>Used by</t>
-  </si>
-  <si>
-    <t>31</t>
   </si>
   <si>
     <t>neutrophilia</t>
@@ -587,7 +562,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -640,6 +615,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -955,10 +933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F743750-5540-5B42-BCD9-474CEE4AA1C7}">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37:I40"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -973,7 +951,7 @@
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="125" customHeight="1" thickBot="1">
+    <row r="1" spans="1:14" ht="125" customHeight="1" thickBot="1">
       <c r="B1" s="19" t="s">
         <v>14</v>
       </c>
@@ -985,7 +963,7 @@
       <c r="H1" s="19"/>
       <c r="I1" s="19"/>
     </row>
-    <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1">
+    <row r="2" spans="1:14" ht="17" customHeight="1" thickBot="1">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1003,7 +981,7 @@
       <c r="H2" s="23"/>
       <c r="I2" s="24"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:14">
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1029,7 +1007,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1057,8 +1035,12 @@
       <c r="I4" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1086,8 +1068,12 @@
       <c r="I5" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1113,10 +1099,14 @@
         <v>11</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1144,8 +1134,12 @@
       <c r="I7" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1173,8 +1167,12 @@
       <c r="I8" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1202,8 +1200,12 @@
       <c r="I9" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1231,8 +1233,12 @@
       <c r="I10" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1258,10 +1264,14 @@
         <v>11</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1289,8 +1299,12 @@
       <c r="I12" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1316,10 +1330,14 @@
         <v>11</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1347,8 +1365,12 @@
       <c r="I14" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1376,8 +1398,12 @@
       <c r="I15" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1405,8 +1431,12 @@
       <c r="I16" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1434,8 +1464,12 @@
       <c r="I17" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1463,8 +1497,12 @@
       <c r="I18" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1492,8 +1530,12 @@
       <c r="I19" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1521,8 +1563,12 @@
       <c r="I20" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21">
         <v>18</v>
       </c>
@@ -1533,7 +1579,7 @@
         <v>54</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E21" s="10" t="b">
         <v>0</v>
@@ -1550,19 +1596,23 @@
       <c r="I21" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22">
         <v>19</v>
       </c>
       <c r="B22" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="D22" s="10" t="s">
         <v>57</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>46</v>
       </c>
       <c r="E22" s="10" t="b">
         <v>0</v>
@@ -1579,8 +1629,12 @@
       <c r="I22" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23">
         <v>20</v>
       </c>
@@ -1591,7 +1645,7 @@
         <v>59</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E23" s="10" t="b">
         <v>0</v>
@@ -1608,16 +1662,20 @@
       <c r="I23" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24">
         <v>21</v>
       </c>
       <c r="B24" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>62</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>20</v>
@@ -1637,19 +1695,23 @@
       <c r="I24" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25">
         <v>22</v>
       </c>
       <c r="B25" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>64</v>
-      </c>
       <c r="D25" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E25" s="10" t="b">
         <v>0</v>
@@ -1664,21 +1726,25 @@
         <v>12</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26">
         <v>23</v>
       </c>
       <c r="B26" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>66</v>
-      </c>
       <c r="D26" s="10" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E26" s="10" t="b">
         <v>0</v>
@@ -1693,21 +1759,25 @@
         <v>12</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>12</v>
+      </c>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27">
         <v>24</v>
       </c>
       <c r="B27" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>68</v>
-      </c>
       <c r="D27" s="10" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="E27" s="10" t="b">
         <v>0</v>
@@ -1722,21 +1792,25 @@
         <v>12</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28">
         <v>25</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>69</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="E28" s="10" t="b">
         <v>0</v>
@@ -1751,10 +1825,14 @@
         <v>12</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29">
         <v>26</v>
       </c>
@@ -1780,10 +1858,14 @@
         <v>12</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>12</v>
+      </c>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30">
         <v>27</v>
       </c>
@@ -1794,7 +1876,7 @@
         <v>73</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E30" s="10" t="b">
         <v>0</v>
@@ -1809,248 +1891,107 @@
         <v>12</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31">
-        <v>28</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="B31" s="15"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="B32" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E31" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I31" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32">
-        <v>29</v>
-      </c>
-      <c r="B32" s="10" t="s">
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I32" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33">
-        <v>30</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I33" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34">
-        <v>31</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I34" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35">
-        <v>32</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E35" s="10" t="b">
-        <v>0</v>
-      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
       <c r="F35" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H35" s="13" t="s">
         <v>12</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="B36" s="15"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="B37" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I37" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="B38" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I38" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="B39" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I39" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="B40" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I40" s="14" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A3:I3" xr:uid="{B7CDC23C-D818-C546-A01D-EBF45A0E1E22}">
-    <sortState ref="A4:I35">
-      <sortCondition ref="A3:A35"/>
+    <sortState ref="A4:I30">
+      <sortCondition ref="A3:A30"/>
     </sortState>
   </autoFilter>
   <mergeCells count="3">
